--- a/BackTest/2019-10-29 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-29 BackTest WAVES.xlsx
@@ -451,17 +451,13 @@
         <v>946.35</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>952</v>
-      </c>
-      <c r="K2" t="n">
-        <v>952</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>946.75</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>953</v>
-      </c>
-      <c r="K3" t="n">
-        <v>952</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>947.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>954</v>
-      </c>
-      <c r="K4" t="n">
-        <v>952</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>947.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>951</v>
-      </c>
-      <c r="K5" t="n">
-        <v>952</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>947.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>951</v>
-      </c>
-      <c r="K6" t="n">
-        <v>952</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>948.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>951</v>
-      </c>
-      <c r="K7" t="n">
-        <v>952</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>948.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>951</v>
-      </c>
-      <c r="K8" t="n">
-        <v>952</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>948.8</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>952</v>
-      </c>
-      <c r="K9" t="n">
-        <v>952</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>949.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>952</v>
-      </c>
-      <c r="K10" t="n">
-        <v>952</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>949.75</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>955</v>
-      </c>
-      <c r="K11" t="n">
-        <v>952</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>950.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>955</v>
-      </c>
-      <c r="K12" t="n">
-        <v>952</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>950.95</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>958</v>
-      </c>
-      <c r="K13" t="n">
-        <v>952</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>952.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>968</v>
-      </c>
-      <c r="K14" t="n">
-        <v>952</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1012,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>952</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1053,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>952</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1094,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>952</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>952</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1176,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>952</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1217,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>952</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1258,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>952</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1299,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>952</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1340,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>952</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1381,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>952</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1422,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>952</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1463,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>952</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1504,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>952</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1545,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>952</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1586,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>952</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1627,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>952</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1668,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>952</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1709,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>952</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1750,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>952</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1791,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>952</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1832,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>952</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1873,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>952</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1914,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>952</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1955,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>952</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1996,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>952</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2037,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>952</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2078,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>952</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2119,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>952</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2160,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>952</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2201,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>952</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2242,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>952</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2283,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>952</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2324,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>952</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2362,19 +2064,13 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>952</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>1.225042016806723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2438,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2473,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2508,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -3695,14 +3391,20 @@
         <v>991.65</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>976</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3730,14 +3432,20 @@
         <v>990.15</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>976</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3765,14 +3473,20 @@
         <v>988.8</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>978</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3807,7 +3521,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3842,7 +3560,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3877,7 +3599,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3912,7 +3638,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3947,7 +3677,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3982,7 +3716,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4017,7 +3755,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +3794,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4087,7 +3833,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4122,7 +3872,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4157,7 +3911,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4192,7 +3950,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4227,7 +3989,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4262,7 +4028,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4297,7 +4067,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4332,7 +4106,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4367,7 +4145,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4402,7 +4184,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4437,7 +4223,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4472,7 +4262,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4507,7 +4301,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4542,7 +4340,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4577,7 +4379,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4612,7 +4418,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4647,7 +4457,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4682,7 +4496,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4717,7 +4535,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4752,7 +4574,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4787,7 +4613,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4822,7 +4652,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4857,7 +4691,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4892,7 +4730,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4927,7 +4769,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4962,7 +4808,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4997,7 +4847,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5032,7 +4886,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5067,7 +4925,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5102,7 +4964,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5137,7 +5003,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5172,7 +5042,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5081,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5242,7 +5120,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5277,7 +5159,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5312,7 +5198,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5347,7 +5237,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5382,7 +5276,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5417,7 +5315,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5452,7 +5354,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5487,7 +5393,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5522,7 +5432,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5557,7 +5471,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5592,7 +5510,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5627,7 +5549,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5662,7 +5588,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5697,7 +5627,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5732,7 +5666,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5767,7 +5705,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5802,7 +5744,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5837,7 +5783,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5872,7 +5822,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5907,7 +5861,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5942,7 +5900,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5977,7 +5939,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6012,7 +5978,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6047,7 +6017,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6082,7 +6056,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6117,7 +6095,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6152,7 +6134,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6187,7 +6173,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6222,7 +6212,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6257,7 +6251,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6292,7 +6290,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6327,7 +6329,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6368,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6397,7 +6407,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6432,7 +6446,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6467,7 +6485,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6502,7 +6524,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6537,7 +6563,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6572,7 +6602,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6607,7 +6641,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6642,7 +6680,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6677,7 +6719,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6712,7 +6758,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6747,7 +6797,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6782,7 +6836,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6817,7 +6875,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6852,7 +6914,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6887,7 +6953,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6922,7 +6992,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6957,7 +7031,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6992,7 +7070,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7027,7 +7109,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7062,7 +7148,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7097,7 +7187,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7132,7 +7226,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7167,7 +7265,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7202,7 +7304,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7237,7 +7343,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7272,7 +7382,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7307,7 +7421,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7342,7 +7460,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7377,7 +7499,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7412,7 +7538,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7447,7 +7577,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7482,7 +7616,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7655,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7552,7 +7694,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7587,7 +7733,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7622,7 +7772,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7657,7 +7811,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7692,7 +7850,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7727,7 +7889,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7762,7 +7928,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7797,7 +7967,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7832,7 +8006,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7867,7 +8045,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7902,7 +8084,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7937,7 +8123,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7972,7 +8162,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8007,7 +8201,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8042,7 +8240,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8077,7 +8279,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8112,7 +8318,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8147,7 +8357,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8182,7 +8396,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8217,7 +8435,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8252,7 +8474,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8287,7 +8513,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8322,7 +8552,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8357,7 +8591,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8392,7 +8630,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8427,7 +8669,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8462,7 +8708,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8497,7 +8747,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8532,7 +8786,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8567,7 +8825,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8602,7 +8864,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8637,7 +8903,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8942,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8707,7 +8981,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8742,7 +9020,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8777,7 +9059,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8812,7 +9098,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8847,7 +9137,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8882,7 +9176,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8917,7 +9215,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8952,7 +9254,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8987,7 +9293,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9022,7 +9332,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9057,7 +9371,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9092,7 +9410,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9127,7 +9449,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9162,7 +9488,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9197,7 +9527,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9232,7 +9566,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9267,7 +9605,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9302,7 +9644,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9337,7 +9683,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9372,7 +9722,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9407,7 +9761,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9442,7 +9800,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9477,7 +9839,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9505,18 +9871,16 @@
         <v>954.95</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>952</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M252" t="n">
@@ -9546,14 +9910,12 @@
         <v>954.5</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>952</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
@@ -9587,14 +9949,12 @@
         <v>954.2</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>954</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
@@ -9628,14 +9988,12 @@
         <v>953.9</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>954</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
@@ -9669,14 +10027,12 @@
         <v>953.75</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>957</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
@@ -9710,14 +10066,12 @@
         <v>953.6</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>957</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
@@ -9751,14 +10105,12 @@
         <v>953.55</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>958</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
@@ -9792,14 +10144,12 @@
         <v>953.5</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>957</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
@@ -9833,14 +10183,12 @@
         <v>953.45</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>957</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
@@ -9874,14 +10222,12 @@
         <v>953.5</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>957</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
@@ -9915,14 +10261,12 @@
         <v>953.45</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>957</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
@@ -9956,14 +10300,12 @@
         <v>953.4</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>957</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
@@ -9997,14 +10339,12 @@
         <v>953.5</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>956</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
@@ -10038,14 +10378,12 @@
         <v>953.65</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>957</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
@@ -10079,14 +10417,12 @@
         <v>954.15</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>958</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
@@ -10120,14 +10456,12 @@
         <v>954.75</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>957</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
@@ -10161,14 +10495,12 @@
         <v>955.1</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>958</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
@@ -10202,14 +10534,12 @@
         <v>955.75</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>959</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
@@ -10243,14 +10573,12 @@
         <v>956.4</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>963</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
@@ -10284,14 +10612,12 @@
         <v>956.95</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>962</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
@@ -13055,14 +13381,12 @@
         <v>956.4</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>952</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
@@ -13096,14 +13420,12 @@
         <v>955.85</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>951</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
@@ -13137,14 +13459,12 @@
         <v>955.35</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>950</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
@@ -13178,14 +13498,12 @@
         <v>954.85</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>950</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
@@ -13219,14 +13537,12 @@
         <v>954.5</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>950</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
@@ -13260,14 +13576,12 @@
         <v>954.25</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>950</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
@@ -13301,14 +13615,12 @@
         <v>953.75</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>947</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
@@ -13342,14 +13654,12 @@
         <v>953.25</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>947</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
@@ -13383,14 +13693,12 @@
         <v>952.65</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>949</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
@@ -13424,14 +13732,12 @@
         <v>952.3</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>949</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
@@ -13465,14 +13771,12 @@
         <v>952</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>950</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
@@ -13506,14 +13810,12 @@
         <v>951.6</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>950</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
@@ -13547,14 +13849,12 @@
         <v>951.25</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>950</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
@@ -13588,14 +13888,12 @@
         <v>950.8</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>947</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
@@ -13629,14 +13927,12 @@
         <v>950.4</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>950</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
@@ -13670,14 +13966,12 @@
         <v>950</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>948</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
@@ -13711,14 +14005,12 @@
         <v>949.7</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>948</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
@@ -13752,14 +14044,12 @@
         <v>949.6</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>949</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
@@ -13793,14 +14083,12 @@
         <v>949.15</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>944</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
@@ -13834,14 +14122,12 @@
         <v>948.95</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>948</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
@@ -13875,14 +14161,12 @@
         <v>948.85</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>950</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
@@ -13916,14 +14200,12 @@
         <v>948.55</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>945</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
@@ -13957,14 +14239,12 @@
         <v>948.25</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>944</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
@@ -13998,14 +14278,12 @@
         <v>948</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>945</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
@@ -14039,14 +14317,12 @@
         <v>947.75</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>945</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
@@ -14080,14 +14356,12 @@
         <v>947.5</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>945</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
@@ -14121,14 +14395,12 @@
         <v>947.4</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>945</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
@@ -14162,14 +14434,12 @@
         <v>947.25</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>944</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
@@ -14203,14 +14473,12 @@
         <v>946.8</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>940</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
@@ -14244,14 +14512,12 @@
         <v>946.25</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>938</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
@@ -14285,14 +14551,12 @@
         <v>945.8</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>941</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
@@ -14326,14 +14590,12 @@
         <v>945.3</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>940</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
@@ -14367,14 +14629,12 @@
         <v>945</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>944</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
@@ -14408,14 +14668,12 @@
         <v>944.8</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>943</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
@@ -14449,14 +14707,12 @@
         <v>944.35</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>941</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
@@ -14490,14 +14746,12 @@
         <v>943.9</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>939</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
@@ -14531,14 +14785,12 @@
         <v>943.35</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>937</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
@@ -14572,14 +14824,12 @@
         <v>942.8</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>938</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
@@ -14613,14 +14863,12 @@
         <v>942.55</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>939</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
@@ -14654,14 +14902,12 @@
         <v>942.1</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>939</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
@@ -14695,14 +14941,12 @@
         <v>941.4</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>936</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
@@ -14736,14 +14980,12 @@
         <v>941</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>937</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
@@ -14777,14 +15019,12 @@
         <v>940.7</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>938</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
@@ -14818,14 +15058,12 @@
         <v>940.3</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>937</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
@@ -14859,14 +15097,12 @@
         <v>939.9</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>937</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
@@ -14900,14 +15136,12 @@
         <v>939.7</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>941</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
@@ -14941,14 +15175,12 @@
         <v>939.6</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>943</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
@@ -14982,14 +15214,12 @@
         <v>939.45</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>941</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
@@ -15023,14 +15253,12 @@
         <v>939.6</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>943</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
@@ -15064,14 +15292,12 @@
         <v>939.75</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>941</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
@@ -15105,14 +15331,12 @@
         <v>939.75</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>941</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
@@ -15146,14 +15370,12 @@
         <v>939.85</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>942</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
@@ -15187,14 +15409,12 @@
         <v>939.75</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>942</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
@@ -15228,14 +15448,12 @@
         <v>939.95</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>947</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
@@ -15269,14 +15487,12 @@
         <v>940.1</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>944</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
@@ -15310,14 +15526,12 @@
         <v>940.2</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>941</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
@@ -15351,14 +15565,12 @@
         <v>940.45</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>942</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
@@ -15392,14 +15604,12 @@
         <v>941</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>949</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
@@ -15433,14 +15643,12 @@
         <v>941.5</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>949</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
@@ -15474,14 +15682,12 @@
         <v>941.95</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>948</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
@@ -15515,14 +15721,12 @@
         <v>942.35</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>944</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
@@ -15556,14 +15760,12 @@
         <v>942.7</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>944</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
@@ -15597,14 +15799,12 @@
         <v>943.1</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>946</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
@@ -15638,14 +15838,12 @@
         <v>943.45</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>944</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
@@ -15679,14 +15877,12 @@
         <v>943.95</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>947</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
@@ -15720,14 +15916,12 @@
         <v>944.15</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>945</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
@@ -15761,14 +15955,12 @@
         <v>944.25</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>945</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
@@ -15802,14 +15994,12 @@
         <v>944.2</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>940</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
@@ -15843,14 +16033,12 @@
         <v>944.35</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>946</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
@@ -15884,14 +16072,12 @@
         <v>944.6</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>946</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
@@ -15925,14 +16111,12 @@
         <v>944.75</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>944</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
@@ -15966,14 +16150,12 @@
         <v>944.85</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>944</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
@@ -16007,14 +16189,12 @@
         <v>944.8</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>941</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
@@ -16048,14 +16228,12 @@
         <v>944.5</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>941</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
@@ -16089,14 +16267,12 @@
         <v>944.55</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>945</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
@@ -16130,14 +16306,12 @@
         <v>944.75</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>945</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
@@ -16171,14 +16345,12 @@
         <v>945.1</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>949</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
@@ -16212,14 +16384,12 @@
         <v>945.1</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>949</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
@@ -16253,14 +16423,12 @@
         <v>945.15</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>950</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
@@ -16294,14 +16462,12 @@
         <v>945.4</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>953</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
@@ -16335,14 +16501,12 @@
         <v>945.85</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>953</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
@@ -16376,14 +16540,12 @@
         <v>946.45</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>956</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
@@ -16417,14 +16579,12 @@
         <v>947</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>957</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
@@ -16458,14 +16618,12 @@
         <v>947.65</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>957</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
@@ -16499,14 +16657,12 @@
         <v>948.25</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>959</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
@@ -16540,14 +16696,12 @@
         <v>949</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>960</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
@@ -16581,14 +16735,12 @@
         <v>949.7</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>959</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
@@ -16622,14 +16774,12 @@
         <v>950.8</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>962</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
         <is>
@@ -16663,14 +16813,12 @@
         <v>951.65</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>963</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
@@ -16704,14 +16852,12 @@
         <v>952.35</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>960</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
@@ -16745,14 +16891,12 @@
         <v>953.2</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>961</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
@@ -16786,14 +16930,12 @@
         <v>953.95</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>959</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
@@ -16827,14 +16969,12 @@
         <v>954.7</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>956</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
@@ -16946,14 +17086,12 @@
         <v>957.35</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>966</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
@@ -16987,14 +17125,12 @@
         <v>958.5</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>972</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
@@ -17028,14 +17164,12 @@
         <v>959.35</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>966</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
         <is>

--- a/BackTest/2019-10-29 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-29 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3775.07737336</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>3783.07737336</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>948</v>
+      </c>
+      <c r="J3" t="n">
+        <v>948</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>3783.07737336</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>949</v>
+      </c>
+      <c r="J4" t="n">
+        <v>948</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>3783.07737336</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>949</v>
+      </c>
+      <c r="J5" t="n">
+        <v>948</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>3158.408173360001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>949</v>
+      </c>
+      <c r="J6" t="n">
+        <v>949</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>3158.408173360001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>946</v>
+      </c>
+      <c r="J7" t="n">
+        <v>949</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>3158.408173360001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>946</v>
+      </c>
+      <c r="J8" t="n">
+        <v>949</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>3158.408173360001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>946</v>
+      </c>
+      <c r="J9" t="n">
+        <v>946</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>3115.89687336</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>946</v>
+      </c>
+      <c r="J10" t="n">
+        <v>946</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>3105.29247336</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>943</v>
+      </c>
+      <c r="J11" t="n">
+        <v>946</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +841,19 @@
         <v>3087.82347336</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>942</v>
+      </c>
+      <c r="J12" t="n">
+        <v>946</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +882,19 @@
         <v>3583.71337336</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>940</v>
+      </c>
+      <c r="J13" t="n">
+        <v>946</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +923,19 @@
         <v>3583.71337336</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>942</v>
+      </c>
+      <c r="J14" t="n">
+        <v>946</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +964,19 @@
         <v>3551.06277336</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>942</v>
+      </c>
+      <c r="J15" t="n">
+        <v>946</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1005,19 @@
         <v>3551.06277336</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>937</v>
+      </c>
+      <c r="J16" t="n">
+        <v>946</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1046,19 @@
         <v>3566.80267336</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>937</v>
+      </c>
+      <c r="J17" t="n">
+        <v>946</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1087,19 @@
         <v>4573.79597336</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>938</v>
+      </c>
+      <c r="J18" t="n">
+        <v>946</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1128,19 @@
         <v>4017.69707336</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>940</v>
+      </c>
+      <c r="J19" t="n">
+        <v>946</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1169,19 @@
         <v>4606.45607336</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>937</v>
+      </c>
+      <c r="J20" t="n">
+        <v>946</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1210,19 @@
         <v>4617.07177336</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>942</v>
+      </c>
+      <c r="J21" t="n">
+        <v>946</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1251,19 @@
         <v>4617.07177336</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>944</v>
+      </c>
+      <c r="J22" t="n">
+        <v>946</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1292,19 @@
         <v>4846.52137336</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>944</v>
+      </c>
+      <c r="J23" t="n">
+        <v>946</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1333,19 @@
         <v>4846.52137336</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>946</v>
+      </c>
+      <c r="J24" t="n">
+        <v>946</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1374,19 @@
         <v>4804.55627336</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>946</v>
+      </c>
+      <c r="J25" t="n">
+        <v>946</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1415,19 @@
         <v>4804.55627336</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>941</v>
+      </c>
+      <c r="J26" t="n">
+        <v>946</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1456,19 @@
         <v>3338.30297336</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>941</v>
+      </c>
+      <c r="J27" t="n">
+        <v>946</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1497,19 @@
         <v>3338.30297336</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>938</v>
+      </c>
+      <c r="J28" t="n">
+        <v>946</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1538,19 @@
         <v>3338.30297336</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>938</v>
+      </c>
+      <c r="J29" t="n">
+        <v>946</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1579,19 @@
         <v>3338.30297336</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>938</v>
+      </c>
+      <c r="J30" t="n">
+        <v>946</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1620,19 @@
         <v>3328.103673359999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>938</v>
+      </c>
+      <c r="J31" t="n">
+        <v>946</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1661,19 @@
         <v>3331.103673359999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>935</v>
+      </c>
+      <c r="J32" t="n">
+        <v>946</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1702,19 @@
         <v>3331.103673359999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>943</v>
+      </c>
+      <c r="J33" t="n">
+        <v>946</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1743,19 @@
         <v>3887.20267336</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>943</v>
+      </c>
+      <c r="J34" t="n">
+        <v>946</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1784,19 @@
         <v>4422.67267336</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>945</v>
+      </c>
+      <c r="J35" t="n">
+        <v>946</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1825,19 @@
         <v>4422.67267336</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>946</v>
+      </c>
+      <c r="J36" t="n">
+        <v>946</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1866,19 @@
         <v>4422.67267336</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>946</v>
+      </c>
+      <c r="J37" t="n">
+        <v>946</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1907,19 @@
         <v>4422.67267336</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>946</v>
+      </c>
+      <c r="J38" t="n">
+        <v>946</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1948,19 @@
         <v>5532.98677336</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>946</v>
+      </c>
+      <c r="J39" t="n">
+        <v>946</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1989,19 @@
         <v>1897.439673360001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>949</v>
+      </c>
+      <c r="J40" t="n">
+        <v>946</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +2030,19 @@
         <v>1897.439673360001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>946</v>
+      </c>
+      <c r="J41" t="n">
+        <v>946</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2071,19 @@
         <v>1857.429673360001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>946</v>
+      </c>
+      <c r="J42" t="n">
+        <v>946</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2112,19 @@
         <v>1857.429673360001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>945</v>
+      </c>
+      <c r="J43" t="n">
+        <v>946</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2153,19 @@
         <v>1857.429673360001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>945</v>
+      </c>
+      <c r="J44" t="n">
+        <v>946</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2194,19 @@
         <v>1857.429673360001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>945</v>
+      </c>
+      <c r="J45" t="n">
+        <v>946</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2235,19 @@
         <v>1857.429673360001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>945</v>
+      </c>
+      <c r="J46" t="n">
+        <v>946</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2276,19 @@
         <v>1857.429673360001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>945</v>
+      </c>
+      <c r="J47" t="n">
+        <v>946</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2317,19 @@
         <v>-488.3201266399994</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>945</v>
+      </c>
+      <c r="J48" t="n">
+        <v>946</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2358,19 @@
         <v>-488.3201266399994</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>944</v>
+      </c>
+      <c r="J49" t="n">
+        <v>946</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2399,19 @@
         <v>-488.3201266399994</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>944</v>
+      </c>
+      <c r="J50" t="n">
+        <v>946</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2440,19 @@
         <v>361.6798733600006</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>944</v>
+      </c>
+      <c r="J51" t="n">
+        <v>946</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2481,19 @@
         <v>361.6798733600006</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>945</v>
+      </c>
+      <c r="J52" t="n">
+        <v>946</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2522,19 @@
         <v>361.6798733600006</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>945</v>
+      </c>
+      <c r="J53" t="n">
+        <v>946</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2563,19 @@
         <v>936.6798733600006</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>945</v>
+      </c>
+      <c r="J54" t="n">
+        <v>946</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2604,19 @@
         <v>778.6808733600005</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>949</v>
+      </c>
+      <c r="J55" t="n">
+        <v>946</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2645,19 @@
         <v>907.5986733600005</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>947</v>
+      </c>
+      <c r="J56" t="n">
+        <v>946</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2686,19 @@
         <v>907.5986733600005</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>949</v>
+      </c>
+      <c r="J57" t="n">
+        <v>946</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2727,19 @@
         <v>907.5986733600005</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>949</v>
+      </c>
+      <c r="J58" t="n">
+        <v>946</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2768,19 @@
         <v>1021.06707336</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>949</v>
+      </c>
+      <c r="J59" t="n">
+        <v>946</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2809,19 @@
         <v>4754.859373360001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>950</v>
+      </c>
+      <c r="J60" t="n">
+        <v>946</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2850,19 @@
         <v>5845.846373360001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>951</v>
+      </c>
+      <c r="J61" t="n">
+        <v>946</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2891,19 @@
         <v>8367.853173360001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>952</v>
+      </c>
+      <c r="J62" t="n">
+        <v>946</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2932,19 @@
         <v>6163.330973360002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>953</v>
+      </c>
+      <c r="J63" t="n">
+        <v>946</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2973,19 @@
         <v>6205.426873360002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>950</v>
+      </c>
+      <c r="J64" t="n">
+        <v>946</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +3014,19 @@
         <v>6205.426873360002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>951</v>
+      </c>
+      <c r="J65" t="n">
+        <v>946</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +3055,19 @@
         <v>6205.426873360002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>951</v>
+      </c>
+      <c r="J66" t="n">
+        <v>946</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +3096,19 @@
         <v>6205.426873360002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>951</v>
+      </c>
+      <c r="J67" t="n">
+        <v>946</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3137,19 @@
         <v>6819.065673360002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>951</v>
+      </c>
+      <c r="J68" t="n">
+        <v>946</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +3178,19 @@
         <v>6819.065673360002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>952</v>
+      </c>
+      <c r="J69" t="n">
+        <v>946</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3219,19 @@
         <v>6919.065673360002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>952</v>
+      </c>
+      <c r="J70" t="n">
+        <v>946</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3260,19 @@
         <v>8336.363173360001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>955</v>
+      </c>
+      <c r="J71" t="n">
+        <v>946</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3301,19 @@
         <v>37240.04017336</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>957</v>
+      </c>
+      <c r="J72" t="n">
+        <v>946</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3345,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>946</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3384,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>946</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3423,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>946</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3462,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>946</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3501,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>946</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3540,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>946</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3579,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>946</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3618,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>946</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3657,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>946</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3696,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>946</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3735,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>946</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3774,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>946</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3813,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>946</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3852,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>946</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3891,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>946</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3930,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>946</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3969,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>946</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +4008,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>946</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +4047,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>946</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +4086,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>946</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4125,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>946</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4164,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>946</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4203,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>946</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4242,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>946</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4281,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>946</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4320,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>946</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4359,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>946</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4395,17 @@
         <v>137333.13068146</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>946</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4434,17 @@
         <v>142267.25538146</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>946</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4473,17 @@
         <v>136866.88378146</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>946</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4512,17 @@
         <v>141356.38488146</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>946</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4554,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>946</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4593,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>946</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,15 +4629,23 @@
         <v>174682.15888146</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>946</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>1.263498942917548</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.004232804232804</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3916,7 +4670,7 @@
         <v>151474.78913143</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4703,7 @@
         <v>123777.42299341</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4736,7 @@
         <v>123777.42299341</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4769,7 @@
         <v>119650.28149341</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4802,7 @@
         <v>70923.44359341</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4835,7 @@
         <v>71779.50929341001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4868,7 @@
         <v>74408.89269341002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4901,7 @@
         <v>69192.93049341002</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4934,7 @@
         <v>73336.72881841002</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4967,7 @@
         <v>24693.80911841002</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +5000,7 @@
         <v>16736.97531841002</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +5033,7 @@
         <v>22670.93181841002</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +5066,7 @@
         <v>29362.23241841002</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +5099,7 @@
         <v>19199.50811841002</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +5132,7 @@
         <v>-10052.91028158998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +5165,7 @@
         <v>3056.925818410022</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +5198,7 @@
         <v>-11423.73208158998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +5231,7 @@
         <v>-28335.09028158998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +5264,7 @@
         <v>-19523.75738158997</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +5297,7 @@
         <v>-37232.72008158997</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +5330,7 @@
         <v>-32383.11688158997</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +5363,7 @@
         <v>-56575.46968158997</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +5396,7 @@
         <v>-54518.62778158997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +5429,7 @@
         <v>-64268.51568158998</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +5462,7 @@
         <v>-54946.32568158997</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +5495,7 @@
         <v>-53402.56548158998</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4840,7 +5594,7 @@
         <v>-78431.21408158998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5627,7 @@
         <v>-73801.51138158998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5660,7 @@
         <v>-90066.64808158998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -14674,14 +15428,10 @@
         <v>-229276.9334289</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>944</v>
-      </c>
-      <c r="J433" t="n">
-        <v>944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
@@ -14711,304 +15461,262 @@
         <v>-231614.4473289</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="n">
-        <v>944</v>
-      </c>
-      <c r="J434" t="n">
-        <v>944</v>
-      </c>
-      <c r="K434" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>941</v>
+      </c>
+      <c r="C435" t="n">
+        <v>940</v>
+      </c>
+      <c r="D435" t="n">
+        <v>941</v>
+      </c>
+      <c r="E435" t="n">
+        <v>940</v>
+      </c>
+      <c r="F435" t="n">
+        <v>489.8252</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-232104.2725288999</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>939</v>
+      </c>
+      <c r="C436" t="n">
+        <v>938</v>
+      </c>
+      <c r="D436" t="n">
+        <v>939</v>
+      </c>
+      <c r="E436" t="n">
+        <v>938</v>
+      </c>
+      <c r="F436" t="n">
+        <v>1173.5869</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-233277.8594288999</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>937</v>
+      </c>
+      <c r="C437" t="n">
+        <v>937</v>
+      </c>
+      <c r="D437" t="n">
+        <v>937</v>
+      </c>
+      <c r="E437" t="n">
+        <v>937</v>
+      </c>
+      <c r="F437" t="n">
+        <v>371.3226</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-233649.1820289</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>938</v>
+      </c>
+      <c r="C438" t="n">
+        <v>938</v>
+      </c>
+      <c r="D438" t="n">
+        <v>938</v>
+      </c>
+      <c r="E438" t="n">
+        <v>938</v>
+      </c>
+      <c r="F438" t="n">
+        <v>261.469</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-233387.7130288999</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>939</v>
+      </c>
+      <c r="C439" t="n">
+        <v>939</v>
+      </c>
+      <c r="D439" t="n">
+        <v>939</v>
+      </c>
+      <c r="E439" t="n">
+        <v>939</v>
+      </c>
+      <c r="F439" t="n">
+        <v>651.3423</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-232736.3707289</v>
+      </c>
+      <c r="H439" t="n">
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>938</v>
+      </c>
+      <c r="J439" t="n">
+        <v>938</v>
+      </c>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>939</v>
+      </c>
+      <c r="C440" t="n">
+        <v>939</v>
+      </c>
+      <c r="D440" t="n">
+        <v>939</v>
+      </c>
+      <c r="E440" t="n">
+        <v>939</v>
+      </c>
+      <c r="F440" t="n">
+        <v>24</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-232736.3707289</v>
+      </c>
+      <c r="H440" t="n">
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>939</v>
+      </c>
+      <c r="J440" t="n">
+        <v>938</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>936</v>
+      </c>
+      <c r="C441" t="n">
+        <v>933</v>
+      </c>
+      <c r="D441" t="n">
+        <v>938</v>
+      </c>
+      <c r="E441" t="n">
+        <v>931</v>
+      </c>
+      <c r="F441" t="n">
+        <v>5702.7581</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-238439.1288289</v>
+      </c>
+      <c r="H441" t="n">
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>939</v>
+      </c>
+      <c r="J441" t="n">
+        <v>938</v>
+      </c>
+      <c r="K441" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>941</v>
-      </c>
-      <c r="C435" t="n">
-        <v>940</v>
-      </c>
-      <c r="D435" t="n">
-        <v>941</v>
-      </c>
-      <c r="E435" t="n">
-        <v>940</v>
-      </c>
-      <c r="F435" t="n">
-        <v>489.8252</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-232104.2725288999</v>
-      </c>
-      <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="n">
-        <v>941</v>
-      </c>
-      <c r="J435" t="n">
-        <v>944</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>939</v>
-      </c>
-      <c r="C436" t="n">
-        <v>938</v>
-      </c>
-      <c r="D436" t="n">
-        <v>939</v>
-      </c>
-      <c r="E436" t="n">
-        <v>938</v>
-      </c>
-      <c r="F436" t="n">
-        <v>1173.5869</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-233277.8594288999</v>
-      </c>
-      <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>944</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>937</v>
-      </c>
-      <c r="C437" t="n">
-        <v>937</v>
-      </c>
-      <c r="D437" t="n">
-        <v>937</v>
-      </c>
-      <c r="E437" t="n">
-        <v>937</v>
-      </c>
-      <c r="F437" t="n">
-        <v>371.3226</v>
-      </c>
-      <c r="G437" t="n">
-        <v>-233649.1820289</v>
-      </c>
-      <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="n">
-        <v>938</v>
-      </c>
-      <c r="J437" t="n">
-        <v>944</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>938</v>
-      </c>
-      <c r="C438" t="n">
-        <v>938</v>
-      </c>
-      <c r="D438" t="n">
-        <v>938</v>
-      </c>
-      <c r="E438" t="n">
-        <v>938</v>
-      </c>
-      <c r="F438" t="n">
-        <v>261.469</v>
-      </c>
-      <c r="G438" t="n">
-        <v>-233387.7130288999</v>
-      </c>
-      <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="n">
-        <v>937</v>
-      </c>
-      <c r="J438" t="n">
-        <v>944</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>939</v>
-      </c>
-      <c r="C439" t="n">
-        <v>939</v>
-      </c>
-      <c r="D439" t="n">
-        <v>939</v>
-      </c>
-      <c r="E439" t="n">
-        <v>939</v>
-      </c>
-      <c r="F439" t="n">
-        <v>651.3423</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-232736.3707289</v>
-      </c>
-      <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>938</v>
-      </c>
-      <c r="J439" t="n">
-        <v>944</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>939</v>
-      </c>
-      <c r="C440" t="n">
-        <v>939</v>
-      </c>
-      <c r="D440" t="n">
-        <v>939</v>
-      </c>
-      <c r="E440" t="n">
-        <v>939</v>
-      </c>
-      <c r="F440" t="n">
-        <v>24</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-232736.3707289</v>
-      </c>
-      <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>939</v>
-      </c>
-      <c r="J440" t="n">
-        <v>944</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>936</v>
-      </c>
-      <c r="C441" t="n">
-        <v>933</v>
-      </c>
-      <c r="D441" t="n">
-        <v>938</v>
-      </c>
-      <c r="E441" t="n">
-        <v>931</v>
-      </c>
-      <c r="F441" t="n">
-        <v>5702.7581</v>
-      </c>
-      <c r="G441" t="n">
-        <v>-238439.1288289</v>
-      </c>
-      <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>939</v>
-      </c>
-      <c r="J441" t="n">
-        <v>944</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15037,13 +15745,13 @@
         <v>-237614.9390289</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>933</v>
       </c>
       <c r="J442" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15078,13 +15786,13 @@
         <v>-244595.6603289</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>938</v>
       </c>
       <c r="J443" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15119,13 +15827,13 @@
         <v>-247251.6047289</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>937</v>
       </c>
       <c r="J444" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15160,13 +15868,13 @@
         <v>-238612.1051289</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>934</v>
       </c>
       <c r="J445" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15201,13 +15909,13 @@
         <v>-236609.1742289</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>940</v>
       </c>
       <c r="J446" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15242,13 +15950,13 @@
         <v>-236582.2724289</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>941</v>
       </c>
       <c r="J447" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15283,13 +15991,11 @@
         <v>-236594.2724289</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15324,13 +16030,13 @@
         <v>-236582.2724289</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>941</v>
       </c>
       <c r="J449" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15365,13 +16071,13 @@
         <v>-237614.3307289</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>943</v>
       </c>
       <c r="J450" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15406,13 +16112,13 @@
         <v>-237192.3942289</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>941</v>
       </c>
       <c r="J451" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15447,13 +16153,13 @@
         <v>-237192.3942289</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>947</v>
       </c>
       <c r="J452" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15488,13 +16194,13 @@
         <v>-237193.3942289</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>947</v>
       </c>
       <c r="J453" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15529,13 +16235,13 @@
         <v>-236543.81816276</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>942</v>
       </c>
       <c r="J454" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15570,13 +16276,13 @@
         <v>-236543.81816276</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>944</v>
       </c>
       <c r="J455" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15611,13 +16317,13 @@
         <v>-236124.57056276</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>944</v>
       </c>
       <c r="J456" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -15652,13 +16358,13 @@
         <v>-236125.57056276</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>948</v>
       </c>
       <c r="J457" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -15693,13 +16399,13 @@
         <v>-236124.57056276</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>942</v>
       </c>
       <c r="J458" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -15734,13 +16440,13 @@
         <v>-236190.57056276</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>949</v>
       </c>
       <c r="J459" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -15775,13 +16481,11 @@
         <v>-235997.0853307</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -15816,13 +16520,13 @@
         <v>-236023.2118307</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>948</v>
       </c>
       <c r="J461" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -15857,13 +16561,13 @@
         <v>-234315.39172488</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462" t="n">
         <v>944</v>
       </c>
       <c r="J462" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -15898,13 +16602,11 @@
         <v>-234290.79852488</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -15939,13 +16641,11 @@
         <v>-244209.25182488</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -15980,13 +16680,11 @@
         <v>-244103.84164659</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16021,13 +16719,11 @@
         <v>-247596.80344659</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16066,7 +16762,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16101,13 +16797,11 @@
         <v>-254792.922263</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16142,13 +16836,11 @@
         <v>-255192.922263</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16183,13 +16875,11 @@
         <v>-255182.35143848</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16228,7 +16918,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16263,13 +16953,11 @@
         <v>-256700.35143848</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16304,13 +16992,13 @@
         <v>-256741.80003848</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>944</v>
       </c>
       <c r="J473" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16345,13 +17033,11 @@
         <v>-256741.80003848</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16386,13 +17072,13 @@
         <v>-256661.33113848</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>941</v>
       </c>
       <c r="J475" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16427,13 +17113,11 @@
         <v>-256661.33113848</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16468,13 +17152,13 @@
         <v>-256663.33113848</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>945</v>
       </c>
       <c r="J477" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16509,13 +17193,13 @@
         <v>-256699.33113848</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>943</v>
       </c>
       <c r="J478" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16550,13 +17234,11 @@
         <v>-256660.67783848</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16591,13 +17273,11 @@
         <v>-256551.84783848</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16632,13 +17312,11 @@
         <v>-256551.84783848</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16673,13 +17351,11 @@
         <v>-254241.31923848</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
-      </c>
-      <c r="I482" t="n">
-        <v>954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16718,7 +17394,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16757,7 +17433,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16796,7 +17472,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16835,7 +17511,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16874,7 +17550,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16913,7 +17589,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16952,7 +17628,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16991,7 +17667,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17030,7 +17706,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17069,7 +17745,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17108,7 +17784,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17147,7 +17823,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17186,7 +17862,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17225,7 +17901,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17264,7 +17940,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17303,7 +17979,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17342,7 +18018,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17381,7 +18057,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17420,7 +18096,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17459,7 +18135,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17498,7 +18174,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17537,7 +18213,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17576,7 +18252,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17615,7 +18291,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17654,7 +18330,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17693,7 +18369,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17732,7 +18408,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17771,7 +18447,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17810,7 +18486,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17823,6 +18499,6 @@
       <c r="M511" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-29 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3775.07737336</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>3783.07737336</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>948</v>
-      </c>
-      <c r="J3" t="n">
-        <v>948</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>3783.07737336</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>949</v>
-      </c>
-      <c r="J4" t="n">
-        <v>948</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>3783.07737336</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>949</v>
-      </c>
-      <c r="J5" t="n">
-        <v>948</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>3158.408173360001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>949</v>
-      </c>
-      <c r="J6" t="n">
-        <v>949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>3158.408173360001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>946</v>
-      </c>
-      <c r="J7" t="n">
-        <v>949</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>3158.408173360001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>946</v>
-      </c>
-      <c r="J8" t="n">
-        <v>949</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>3158.408173360001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>946</v>
-      </c>
-      <c r="J9" t="n">
-        <v>946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +715,11 @@
         <v>3115.89687336</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>946</v>
-      </c>
-      <c r="J10" t="n">
-        <v>946</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>3105.29247336</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>943</v>
-      </c>
-      <c r="J11" t="n">
-        <v>946</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,19 +781,11 @@
         <v>3087.82347336</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>942</v>
-      </c>
-      <c r="J12" t="n">
-        <v>946</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,19 +814,11 @@
         <v>3583.71337336</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>940</v>
-      </c>
-      <c r="J13" t="n">
-        <v>946</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -923,19 +847,11 @@
         <v>3583.71337336</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>942</v>
-      </c>
-      <c r="J14" t="n">
-        <v>946</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -964,19 +880,11 @@
         <v>3551.06277336</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>942</v>
-      </c>
-      <c r="J15" t="n">
-        <v>946</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1005,19 +913,11 @@
         <v>3551.06277336</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>937</v>
-      </c>
-      <c r="J16" t="n">
-        <v>946</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1046,19 +946,11 @@
         <v>3566.80267336</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>937</v>
-      </c>
-      <c r="J17" t="n">
-        <v>946</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1087,19 +979,11 @@
         <v>4573.79597336</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>938</v>
-      </c>
-      <c r="J18" t="n">
-        <v>946</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1128,19 +1012,11 @@
         <v>4017.69707336</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>940</v>
-      </c>
-      <c r="J19" t="n">
-        <v>946</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1169,19 +1045,11 @@
         <v>4606.45607336</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>937</v>
-      </c>
-      <c r="J20" t="n">
-        <v>946</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1210,19 +1078,11 @@
         <v>4617.07177336</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>942</v>
-      </c>
-      <c r="J21" t="n">
-        <v>946</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1251,19 +1111,11 @@
         <v>4617.07177336</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>944</v>
-      </c>
-      <c r="J22" t="n">
-        <v>946</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1292,19 +1144,11 @@
         <v>4846.52137336</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>944</v>
-      </c>
-      <c r="J23" t="n">
-        <v>946</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1333,19 +1177,11 @@
         <v>4846.52137336</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>946</v>
-      </c>
-      <c r="J24" t="n">
-        <v>946</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1374,19 +1210,11 @@
         <v>4804.55627336</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>946</v>
-      </c>
-      <c r="J25" t="n">
-        <v>946</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1415,19 +1243,11 @@
         <v>4804.55627336</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>941</v>
-      </c>
-      <c r="J26" t="n">
-        <v>946</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1456,19 +1276,11 @@
         <v>3338.30297336</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>941</v>
-      </c>
-      <c r="J27" t="n">
-        <v>946</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1497,19 +1309,11 @@
         <v>3338.30297336</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>938</v>
-      </c>
-      <c r="J28" t="n">
-        <v>946</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1538,19 +1342,11 @@
         <v>3338.30297336</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>938</v>
-      </c>
-      <c r="J29" t="n">
-        <v>946</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1579,19 +1375,11 @@
         <v>3338.30297336</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>938</v>
-      </c>
-      <c r="J30" t="n">
-        <v>946</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1620,19 +1408,11 @@
         <v>3328.103673359999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>938</v>
-      </c>
-      <c r="J31" t="n">
-        <v>946</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1661,19 +1441,11 @@
         <v>3331.103673359999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>935</v>
-      </c>
-      <c r="J32" t="n">
-        <v>946</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1702,19 +1474,11 @@
         <v>3331.103673359999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>943</v>
-      </c>
-      <c r="J33" t="n">
-        <v>946</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1743,19 +1507,11 @@
         <v>3887.20267336</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>943</v>
-      </c>
-      <c r="J34" t="n">
-        <v>946</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1784,19 +1540,11 @@
         <v>4422.67267336</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>945</v>
-      </c>
-      <c r="J35" t="n">
-        <v>946</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1825,19 +1573,11 @@
         <v>4422.67267336</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>946</v>
-      </c>
-      <c r="J36" t="n">
-        <v>946</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1866,19 +1606,11 @@
         <v>4422.67267336</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>946</v>
-      </c>
-      <c r="J37" t="n">
-        <v>946</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1907,19 +1639,11 @@
         <v>4422.67267336</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>946</v>
-      </c>
-      <c r="J38" t="n">
-        <v>946</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1948,19 +1672,11 @@
         <v>5532.98677336</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>946</v>
-      </c>
-      <c r="J39" t="n">
-        <v>946</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1989,19 +1705,11 @@
         <v>1897.439673360001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>949</v>
-      </c>
-      <c r="J40" t="n">
-        <v>946</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2030,19 +1738,11 @@
         <v>1897.439673360001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>946</v>
-      </c>
-      <c r="J41" t="n">
-        <v>946</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2071,19 +1771,11 @@
         <v>1857.429673360001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>946</v>
-      </c>
-      <c r="J42" t="n">
-        <v>946</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2112,19 +1804,11 @@
         <v>1857.429673360001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>945</v>
-      </c>
-      <c r="J43" t="n">
-        <v>946</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2153,19 +1837,11 @@
         <v>1857.429673360001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>945</v>
-      </c>
-      <c r="J44" t="n">
-        <v>946</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2194,19 +1870,11 @@
         <v>1857.429673360001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>945</v>
-      </c>
-      <c r="J45" t="n">
-        <v>946</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2235,19 +1903,11 @@
         <v>1857.429673360001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>945</v>
-      </c>
-      <c r="J46" t="n">
-        <v>946</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2276,19 +1936,11 @@
         <v>1857.429673360001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>945</v>
-      </c>
-      <c r="J47" t="n">
-        <v>946</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2317,19 +1969,11 @@
         <v>-488.3201266399994</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>945</v>
-      </c>
-      <c r="J48" t="n">
-        <v>946</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2358,19 +2002,11 @@
         <v>-488.3201266399994</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>944</v>
-      </c>
-      <c r="J49" t="n">
-        <v>946</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2399,19 +2035,11 @@
         <v>-488.3201266399994</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>944</v>
-      </c>
-      <c r="J50" t="n">
-        <v>946</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2440,19 +2068,11 @@
         <v>361.6798733600006</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>944</v>
-      </c>
-      <c r="J51" t="n">
-        <v>946</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2481,19 +2101,11 @@
         <v>361.6798733600006</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>945</v>
-      </c>
-      <c r="J52" t="n">
-        <v>946</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2522,19 +2134,11 @@
         <v>361.6798733600006</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>945</v>
-      </c>
-      <c r="J53" t="n">
-        <v>946</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2563,19 +2167,11 @@
         <v>936.6798733600006</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>945</v>
-      </c>
-      <c r="J54" t="n">
-        <v>946</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2604,19 +2200,11 @@
         <v>778.6808733600005</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>949</v>
-      </c>
-      <c r="J55" t="n">
-        <v>946</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2645,19 +2233,11 @@
         <v>907.5986733600005</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>947</v>
-      </c>
-      <c r="J56" t="n">
-        <v>946</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2686,19 +2266,11 @@
         <v>907.5986733600005</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>949</v>
-      </c>
-      <c r="J57" t="n">
-        <v>946</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2727,19 +2299,11 @@
         <v>907.5986733600005</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>949</v>
-      </c>
-      <c r="J58" t="n">
-        <v>946</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2768,19 +2332,11 @@
         <v>1021.06707336</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>949</v>
-      </c>
-      <c r="J59" t="n">
-        <v>946</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2809,19 +2365,11 @@
         <v>4754.859373360001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>950</v>
-      </c>
-      <c r="J60" t="n">
-        <v>946</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2850,19 +2398,11 @@
         <v>5845.846373360001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>951</v>
-      </c>
-      <c r="J61" t="n">
-        <v>946</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2891,19 +2431,11 @@
         <v>8367.853173360001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>952</v>
-      </c>
-      <c r="J62" t="n">
-        <v>946</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2932,19 +2464,11 @@
         <v>6163.330973360002</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>953</v>
-      </c>
-      <c r="J63" t="n">
-        <v>946</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2973,19 +2497,11 @@
         <v>6205.426873360002</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>950</v>
-      </c>
-      <c r="J64" t="n">
-        <v>946</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -3014,19 +2530,11 @@
         <v>6205.426873360002</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>951</v>
-      </c>
-      <c r="J65" t="n">
-        <v>946</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3055,19 +2563,11 @@
         <v>6205.426873360002</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>951</v>
-      </c>
-      <c r="J66" t="n">
-        <v>946</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3096,19 +2596,11 @@
         <v>6205.426873360002</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>951</v>
-      </c>
-      <c r="J67" t="n">
-        <v>946</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3137,19 +2629,11 @@
         <v>6819.065673360002</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>951</v>
-      </c>
-      <c r="J68" t="n">
-        <v>946</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3178,19 +2662,11 @@
         <v>6819.065673360002</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>952</v>
-      </c>
-      <c r="J69" t="n">
-        <v>946</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3219,19 +2695,11 @@
         <v>6919.065673360002</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>952</v>
-      </c>
-      <c r="J70" t="n">
-        <v>946</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3260,19 +2728,11 @@
         <v>8336.363173360001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>955</v>
-      </c>
-      <c r="J71" t="n">
-        <v>946</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3301,19 +2761,11 @@
         <v>37240.04017336</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>957</v>
-      </c>
-      <c r="J72" t="n">
-        <v>946</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3345,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>946</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3384,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>946</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3423,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>946</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3462,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>946</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3501,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>946</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3540,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>946</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3579,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>946</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3618,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>946</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3657,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>946</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3696,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>946</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3735,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>946</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3774,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>946</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3813,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>946</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3852,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>946</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3891,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>946</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3930,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>946</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3969,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>946</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -4008,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>946</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4047,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>946</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4086,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>946</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4125,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>946</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4164,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>946</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4203,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>946</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4242,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>946</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4281,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>946</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4317,17 +3619,11 @@
         <v>130988.02502884</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>946</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4356,17 +3652,11 @@
         <v>149937.22878146</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>946</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4395,17 +3685,11 @@
         <v>137333.13068146</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>946</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4434,17 +3718,11 @@
         <v>142267.25538146</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>946</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4473,17 +3751,11 @@
         <v>136866.88378146</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>946</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4512,17 +3784,11 @@
         <v>141356.38488146</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>946</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4551,17 +3817,11 @@
         <v>151543.98188146</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>946</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4590,17 +3850,11 @@
         <v>174682.15888146</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>946</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4632,20 +3886,12 @@
         <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>946</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>1.263498942917548</v>
-      </c>
-      <c r="M106" t="n">
-        <v>1.004232804232804</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4703,7 +3949,7 @@
         <v>123777.42299341</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4736,7 +3982,7 @@
         <v>123777.42299341</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4769,7 +4015,7 @@
         <v>119650.28149341</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4802,7 +4048,7 @@
         <v>70923.44359341</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4835,7 +4081,7 @@
         <v>71779.50929341001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4868,7 +4114,7 @@
         <v>74408.89269341002</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4901,7 +4147,7 @@
         <v>69192.93049341002</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4934,7 +4180,7 @@
         <v>73336.72881841002</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4967,7 +4213,7 @@
         <v>24693.80911841002</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5000,7 +4246,7 @@
         <v>16736.97531841002</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5033,7 +4279,7 @@
         <v>22670.93181841002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5066,7 +4312,7 @@
         <v>29362.23241841002</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5099,7 +4345,7 @@
         <v>19199.50811841002</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5132,7 +4378,7 @@
         <v>-10052.91028158998</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5165,7 +4411,7 @@
         <v>3056.925818410022</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5198,7 +4444,7 @@
         <v>-11423.73208158998</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5231,7 +4477,7 @@
         <v>-28335.09028158998</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5264,7 +4510,7 @@
         <v>-19523.75738158997</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5297,7 +4543,7 @@
         <v>-37232.72008158997</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5330,7 +4576,7 @@
         <v>-32383.11688158997</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5363,7 +4609,7 @@
         <v>-56575.46968158997</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5396,7 +4642,7 @@
         <v>-54518.62778158997</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5429,7 +4675,7 @@
         <v>-64268.51568158998</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5462,7 +4708,7 @@
         <v>-54946.32568158997</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5495,7 +4741,7 @@
         <v>-53402.56548158998</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5594,7 +4840,7 @@
         <v>-78431.21408158998</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5627,7 +4873,7 @@
         <v>-73801.51138158998</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5660,7 +4906,7 @@
         <v>-90066.64808158998</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -15230,11 +14476,17 @@
         <v>-234692.9425289</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>945</v>
+      </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15263,11 +14515,17 @@
         <v>-229373.8128289</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>944</v>
+      </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15300,7 +14558,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15333,7 +14595,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15362,11 +14628,17 @@
         <v>-229326.3584289</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>941</v>
+      </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15395,11 +14667,17 @@
         <v>-229276.9334289</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>941</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15428,11 +14706,17 @@
         <v>-229276.9334289</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>944</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15461,11 +14745,17 @@
         <v>-231614.4473289</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>944</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15494,11 +14784,17 @@
         <v>-232104.2725288999</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>941</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15527,11 +14823,17 @@
         <v>-233277.8594288999</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>940</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15560,11 +14862,17 @@
         <v>-233649.1820289</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>938</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15593,11 +14901,17 @@
         <v>-233387.7130288999</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>937</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15631,10 +14945,12 @@
       <c r="I439" t="n">
         <v>938</v>
       </c>
-      <c r="J439" t="n">
-        <v>938</v>
-      </c>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15668,12 +14984,10 @@
       <c r="I440" t="n">
         <v>939</v>
       </c>
-      <c r="J440" t="n">
-        <v>938</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L440" t="n">
@@ -15709,12 +15023,10 @@
       <c r="I441" t="n">
         <v>939</v>
       </c>
-      <c r="J441" t="n">
-        <v>938</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L441" t="n">
@@ -15750,9 +15062,7 @@
       <c r="I442" t="n">
         <v>933</v>
       </c>
-      <c r="J442" t="n">
-        <v>938</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15791,9 +15101,7 @@
       <c r="I443" t="n">
         <v>938</v>
       </c>
-      <c r="J443" t="n">
-        <v>938</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15832,9 +15140,7 @@
       <c r="I444" t="n">
         <v>937</v>
       </c>
-      <c r="J444" t="n">
-        <v>938</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15873,9 +15179,7 @@
       <c r="I445" t="n">
         <v>934</v>
       </c>
-      <c r="J445" t="n">
-        <v>938</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15914,9 +15218,7 @@
       <c r="I446" t="n">
         <v>940</v>
       </c>
-      <c r="J446" t="n">
-        <v>938</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15955,9 +15257,7 @@
       <c r="I447" t="n">
         <v>941</v>
       </c>
-      <c r="J447" t="n">
-        <v>938</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15991,12 +15291,12 @@
         <v>-236594.2724289</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>943</v>
+      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16035,9 +15335,7 @@
       <c r="I449" t="n">
         <v>941</v>
       </c>
-      <c r="J449" t="n">
-        <v>938</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16076,9 +15374,7 @@
       <c r="I450" t="n">
         <v>943</v>
       </c>
-      <c r="J450" t="n">
-        <v>938</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16117,9 +15413,7 @@
       <c r="I451" t="n">
         <v>941</v>
       </c>
-      <c r="J451" t="n">
-        <v>938</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16158,9 +15452,7 @@
       <c r="I452" t="n">
         <v>947</v>
       </c>
-      <c r="J452" t="n">
-        <v>938</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16199,9 +15491,7 @@
       <c r="I453" t="n">
         <v>947</v>
       </c>
-      <c r="J453" t="n">
-        <v>938</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16240,9 +15530,7 @@
       <c r="I454" t="n">
         <v>942</v>
       </c>
-      <c r="J454" t="n">
-        <v>938</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16281,9 +15569,7 @@
       <c r="I455" t="n">
         <v>944</v>
       </c>
-      <c r="J455" t="n">
-        <v>938</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16322,9 +15608,7 @@
       <c r="I456" t="n">
         <v>944</v>
       </c>
-      <c r="J456" t="n">
-        <v>938</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16363,9 +15647,7 @@
       <c r="I457" t="n">
         <v>948</v>
       </c>
-      <c r="J457" t="n">
-        <v>938</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16404,9 +15686,7 @@
       <c r="I458" t="n">
         <v>942</v>
       </c>
-      <c r="J458" t="n">
-        <v>938</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16445,9 +15725,7 @@
       <c r="I459" t="n">
         <v>949</v>
       </c>
-      <c r="J459" t="n">
-        <v>938</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16481,12 +15759,12 @@
         <v>-235997.0853307</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>945</v>
+      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16525,9 +15803,7 @@
       <c r="I461" t="n">
         <v>948</v>
       </c>
-      <c r="J461" t="n">
-        <v>938</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16566,9 +15842,7 @@
       <c r="I462" t="n">
         <v>944</v>
       </c>
-      <c r="J462" t="n">
-        <v>938</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16602,12 +15876,12 @@
         <v>-234290.79852488</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>945</v>
+      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16641,12 +15915,12 @@
         <v>-244209.25182488</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>946</v>
+      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16680,12 +15954,12 @@
         <v>-244103.84164659</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>933</v>
+      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16719,12 +15993,12 @@
         <v>-247596.80344659</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>949</v>
+      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16758,12 +16032,12 @@
         <v>-253580.94704659</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>944</v>
+      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16797,12 +16071,12 @@
         <v>-254792.922263</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>943</v>
+      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16836,12 +16110,12 @@
         <v>-255192.922263</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>940</v>
+      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16875,12 +16149,12 @@
         <v>-255182.35143848</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>937</v>
+      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16914,12 +16188,12 @@
         <v>-256700.35143848</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>946</v>
+      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16953,12 +16227,12 @@
         <v>-256700.35143848</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>944</v>
+      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16997,9 +16271,7 @@
       <c r="I473" t="n">
         <v>944</v>
       </c>
-      <c r="J473" t="n">
-        <v>938</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17033,12 +16305,12 @@
         <v>-256741.80003848</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>941</v>
+      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17077,9 +16349,7 @@
       <c r="I475" t="n">
         <v>941</v>
       </c>
-      <c r="J475" t="n">
-        <v>938</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17113,12 +16383,12 @@
         <v>-256661.33113848</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>945</v>
+      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17157,9 +16427,7 @@
       <c r="I477" t="n">
         <v>945</v>
       </c>
-      <c r="J477" t="n">
-        <v>938</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17198,9 +16466,7 @@
       <c r="I478" t="n">
         <v>943</v>
       </c>
-      <c r="J478" t="n">
-        <v>938</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17234,12 +16500,12 @@
         <v>-256660.67783848</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>942</v>
+      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17273,12 +16539,12 @@
         <v>-256551.84783848</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>950</v>
+      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17312,12 +16578,12 @@
         <v>-256551.84783848</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>954</v>
+      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17351,12 +16617,12 @@
         <v>-254241.31923848</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>954</v>
+      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17390,12 +16656,12 @@
         <v>-252644.51753848</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>956</v>
+      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17429,12 +16695,12 @@
         <v>-252644.51753848</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>959</v>
+      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17471,9 +16737,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>938</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17510,9 +16774,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>938</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17549,9 +16811,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>938</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17588,9 +16848,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>938</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17627,9 +16885,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>938</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17666,9 +16922,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>938</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17705,9 +16959,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>938</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17744,9 +16996,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>938</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17783,9 +17033,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>938</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17822,9 +17070,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>938</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17861,9 +17107,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>938</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17900,9 +17144,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>938</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17939,9 +17181,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>938</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17978,9 +17218,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>938</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18017,9 +17255,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>938</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18056,9 +17292,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>938</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18095,9 +17329,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>938</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18134,9 +17366,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>938</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18173,9 +17403,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>938</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18212,9 +17440,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>938</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18251,9 +17477,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>938</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18290,9 +17514,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>938</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18329,9 +17551,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>938</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18368,9 +17588,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>938</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18407,9 +17625,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>938</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18446,9 +17662,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>938</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18485,9 +17699,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>938</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18499,6 +17711,6 @@
       <c r="M511" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-29 BackTest WAVES.xlsx
@@ -3619,7 +3619,7 @@
         <v>130988.02502884</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>149937.22878146</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>137333.13068146</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>142267.25538146</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>136866.88378146</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>141356.38488146</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>151543.98188146</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>174682.15888146</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>174682.15888146</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>123777.42299341</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>123777.42299341</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>119650.28149341</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>70923.44359341</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>71779.50929341001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -14344,11 +14344,17 @@
         <v>-234096.6888289</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>944</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +14383,17 @@
         <v>-234074.8124289</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>944</v>
+      </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +14422,17 @@
         <v>-234074.8124289</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>945</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14461,17 @@
         <v>-234074.8124289</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>945</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14484,7 +14508,7 @@
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L427" t="n">
@@ -14554,9 +14578,11 @@
         <v>-231567.5705289</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>945</v>
+      </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -14591,9 +14617,11 @@
         <v>-229326.3584289</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>940</v>
+      </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -16734,9 +16762,11 @@
         <v>-252644.51753848</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>959</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -16771,9 +16801,11 @@
         <v>-252644.51753848</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>959</v>
+      </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -16808,9 +16840,11 @@
         <v>-249285.71753848</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>959</v>
+      </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -16845,9 +16879,11 @@
         <v>-249285.71753848</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>962</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -16882,9 +16918,11 @@
         <v>-249063.02753848</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>962</v>
+      </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -16919,9 +16957,11 @@
         <v>-249325.02753848</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>965</v>
+      </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -16956,9 +16996,11 @@
         <v>-249436.39923848</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>963</v>
+      </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -16993,9 +17035,11 @@
         <v>-268806.82223848</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>960</v>
+      </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
